--- a/xls/success-first_response-colin2-0.50.xlsx
+++ b/xls/success-first_response-colin2-0.50.xlsx
@@ -890,13 +890,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1016,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1037,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1414,13 +1420,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1938,13 +1950,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2462,13 +2480,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2588,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2609,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -2986,13 +3010,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3510,13 +3540,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4034,13 +4070,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4558,13 +4600,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5082,13 +5130,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5606,13 +5660,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6130,13 +6190,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6654,13 +6720,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7178,13 +7250,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
